--- a/data/trans_orig/Q61A-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q61A-Edad-trans_orig.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según el número de meses que lleva en paro</t>
+          <t>Número medio de meses que lleva en paro</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,94; 5,15</t>
+          <t>2,94; 5,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,29; 11,32</t>
+          <t>8,5; 11,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,69; 11,88</t>
+          <t>6,71; 11,88</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,53; 16,15</t>
+          <t>4,41; 16,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,0; 7,22</t>
+          <t>4,04; 7,38</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>9,61; 14,79</t>
+          <t>9,73; 14,91</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,59; 14,34</t>
+          <t>8,66; 14,41</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,85; 11,45</t>
+          <t>4,78; 12,34</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,76; 5,81</t>
+          <t>3,82; 5,92</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>9,34; 12,05</t>
+          <t>9,35; 12,1</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>8,29; 12,01</t>
+          <t>8,33; 12,08</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,31; 12,42</t>
+          <t>5,51; 12,95</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,37; 5,18</t>
+          <t>3,31; 5,2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,63; 15,55</t>
+          <t>10,5; 15,4</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,84; 17,97</t>
+          <t>11,77; 17,94</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,84; 18,23</t>
+          <t>6,62; 18,55</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,36; 7,14</t>
+          <t>4,44; 7,29</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>12,96; 17,62</t>
+          <t>13,11; 17,61</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>15,76; 21,64</t>
+          <t>15,62; 21,82</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,23; 14,41</t>
+          <t>8,44; 14,31</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,06; 5,6</t>
+          <t>3,98; 5,62</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>12,11; 15,46</t>
+          <t>12,11; 15,78</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>14,28; 18,82</t>
+          <t>14,3; 18,58</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>8,52; 14,1</t>
+          <t>8,61; 13,91</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,59; 8,63</t>
+          <t>3,53; 8,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,63; 14,94</t>
+          <t>11,59; 14,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,56; 22,94</t>
+          <t>16,59; 22,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,45; 16,74</t>
+          <t>9,05; 16,58</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,34; 15,78</t>
+          <t>6,46; 15,15</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,41; 23,25</t>
+          <t>16,65; 23,56</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>20,11; 28,71</t>
+          <t>19,88; 29,18</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,88; 18,1</t>
+          <t>13,0; 18,34</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,82; 10,87</t>
+          <t>5,81; 10,91</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>14,44; 18,27</t>
+          <t>14,47; 18,2</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>18,83; 24,68</t>
+          <t>18,86; 24,33</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>12,45; 16,67</t>
+          <t>12,13; 16,75</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,09; 14,35</t>
+          <t>6,4; 14,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14,02; 18,76</t>
+          <t>14,09; 18,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>20,3; 26,56</t>
+          <t>20,0; 26,19</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>19,06; 38,9</t>
+          <t>19,43; 40,29</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,78; 39,34</t>
+          <t>6,79; 38,93</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>15,38; 25,96</t>
+          <t>15,62; 26,17</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>21,81; 33,74</t>
+          <t>21,48; 32,44</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>25,18; 41,93</t>
+          <t>24,16; 40,46</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,66; 23,0</t>
+          <t>7,59; 25,46</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>15,36; 20,33</t>
+          <t>15,29; 20,1</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>21,74; 27,91</t>
+          <t>21,67; 27,77</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>23,67; 36,29</t>
+          <t>23,29; 36,0</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>9,03; 35,95</t>
+          <t>8,95; 45,13</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>22,91; 39,24</t>
+          <t>22,69; 39,15</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>24,65; 36,41</t>
+          <t>24,21; 35,36</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>24,39; 40,5</t>
+          <t>24,56; 40,93</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,44; 14,41</t>
+          <t>5,52; 14,95</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>21,96; 66,94</t>
+          <t>21,48; 67,28</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>26,72; 41,73</t>
+          <t>25,74; 41,55</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>30,52; 50,68</t>
+          <t>30,76; 51,46</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>9,05; 28,02</t>
+          <t>8,95; 29,75</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>24,14; 39,96</t>
+          <t>24,28; 40,15</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>26,74; 36,72</t>
+          <t>27,0; 36,43</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>29,54; 43,22</t>
+          <t>29,76; 42,06</t>
         </is>
       </c>
     </row>
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>20,87; 72,98</t>
+          <t>12,15; 72,98</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1474,12 +1474,12 @@
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>3,4; 58,81</t>
+          <t>3,38; 58,31</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>9,87; 54,94</t>
+          <t>9,27; 55,69</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>5,02; 8,57</t>
+          <t>5,02; 8,89</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>13,76; 16,62</t>
+          <t>13,74; 16,59</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>18,09; 21,41</t>
+          <t>18,12; 21,33</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>17,6; 25,03</t>
+          <t>17,54; 25,22</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>6,23; 11,24</t>
+          <t>6,37; 11,57</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>16,42; 20,71</t>
+          <t>16,38; 20,92</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>20,77; 25,34</t>
+          <t>20,54; 25,21</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>20,33; 26,78</t>
+          <t>20,5; 27,04</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>5,91; 8,75</t>
+          <t>5,95; 8,68</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>15,23; 17,64</t>
+          <t>15,28; 17,63</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>19,72; 22,55</t>
+          <t>19,8; 22,59</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>19,69; 24,89</t>
+          <t>19,92; 24,68</t>
         </is>
       </c>
     </row>
